--- a/Code/Resultados_Analisis/Ciudades/Santa_Fe_NM/Santa_Fe_NM_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Santa_Fe_NM/Santa_Fe_NM_datos_procesados.xlsx
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="BB2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV3" t="n">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="BB3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="BB4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="BB6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="BB8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV9" t="n">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV12" t="n">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV13" t="n">
@@ -2790,7 +2790,7 @@
         </is>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="BB15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV16" t="n">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="BB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="BB17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="BB18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV19" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="BB19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV20" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV21" t="n">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="BB23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV24" t="n">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="BB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="BB25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="BB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="BB27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="BB28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="BB29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="BB30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="BB31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="BB32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="BB33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="BB34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="BB35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV36" t="n">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV37" t="n">
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="BB37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV38" t="n">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV39" t="n">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="BB39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV40" t="n">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="AY40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA40" t="inlineStr">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="BB40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="AY41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA41" t="inlineStr">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="BB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="BB42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="BB43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados_Analisis/Ciudades/Santa_Fe_NM/Santa_Fe_NM_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Santa_Fe_NM/Santa_Fe_NM_datos_procesados.xlsx
@@ -862,12 +862,12 @@
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV4" t="n">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="BB4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV5" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV6" t="n">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV10" t="n">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV11" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV15" t="n">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="BB15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV20" t="n">
@@ -3994,12 +3994,12 @@
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="BB20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV21" t="n">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="BB21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV22" t="n">
@@ -4342,12 +4342,12 @@
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
@@ -4864,12 +4864,12 @@
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
@@ -5908,12 +5908,12 @@
       </c>
       <c r="AY31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ31" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA31" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV32" t="n">
@@ -6082,12 +6082,12 @@
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ32" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA32" t="inlineStr">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="BB32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV33" t="n">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="AY33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ33" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA33" t="inlineStr">
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="BB33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6778,12 +6778,12 @@
       </c>
       <c r="AY36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ36" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA36" t="inlineStr">
@@ -6952,12 +6952,12 @@
       </c>
       <c r="AY37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ37" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA37" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV38" t="n">
@@ -7126,12 +7126,12 @@
       </c>
       <c r="AY38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ38" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA38" t="inlineStr">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="BB38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV39" t="n">
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AY39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ39" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA39" t="inlineStr">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="BB39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV40" t="n">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="AY40" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA40" t="inlineStr">
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="BB40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV41" t="n">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="AY41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ41" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
       <c r="BA41" t="inlineStr">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="BB41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV42" t="n">
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="BB42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">

--- a/Code/Resultados_Analisis/Ciudades/Santa_Fe_NM/Santa_Fe_NM_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Santa_Fe_NM/Santa_Fe_NM_datos_procesados.xlsx
@@ -1389,7 +1389,7 @@
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV6" t="n">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV10" t="n">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV15" t="n">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV21" t="n">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
@@ -5908,12 +5908,12 @@
       </c>
       <c r="AY31" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ31" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA31" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV32" t="n">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="BB32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -7126,12 +7126,12 @@
       </c>
       <c r="AY38" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ38" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA38" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV39" t="n">
@@ -7300,12 +7300,12 @@
       </c>
       <c r="AY39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AZ39" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
       <c r="BA39" t="inlineStr">
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="BB39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="AZ40" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA40" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="AZ41" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
       <c r="BA41" t="inlineStr">
